--- a/Algoriz Stuff.xlsx
+++ b/Algoriz Stuff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\OneDrive\FinTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\OneDrive\csc148\csc148\Fintech\Trade Translator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{BB228BBA-E585-4FDD-BCC3-87AA0B363E08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{51A257B0-52A4-4150-894A-B72A7698FAF8}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{BB228BBA-E585-4FDD-BCC3-87AA0B363E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A9F1141-AA43-4BEF-84A2-14671FE418A6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4286E533-A242-413B-92D5-6AC70E6B4946}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4286E533-A242-413B-92D5-6AC70E6B4946}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
